--- a/Data/Blood Animations - 3228047321/3228047321.xlsx
+++ b/Data/Blood Animations - 3228047321/3228047321.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stone\Desktop\새 폴더 (2)\RimworldExtractor 0.7.12\Blood Animations - 3228047321\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\RimWorld\Mods\RMK\Data\Blood Animations - 3228047321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD6B277-59AF-4B54-9888-C5B32A9487FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6A4E0D-E6A6-47EA-8D54-4EB1E41A2954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Main_240422" sheetId="1" r:id="rId1"/>
+    <sheet name="Main_241013" sheetId="2" r:id="rId1"/>
+    <sheet name="Old_240422" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="78">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -127,6 +128,165 @@
   </si>
   <si>
     <t>초기화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모두 초기화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체가 지면에 충돌할 때 먼지가 날리는 그래픽 효과 활성화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable ground impact particles (Bullets hitting the ground will create flying dirt chunks)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BloodAnimations_GroundImpactToggle</t>
+  </si>
+  <si>
+    <t>Keyed+BloodAnimations_GroundImpactToggle</t>
+  </si>
+  <si>
+    <t>청소가 필요한 탄피 생성 활성화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable filth left by bullets (Chance for gunfire to leave bullet casing filth that require colonists to clean up)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BloodAnimations_BulletCasingFilthToggle</t>
+  </si>
+  <si>
+    <t>Keyed+BloodAnimations_BulletCasingFilthToggle</t>
+  </si>
+  <si>
+    <t>탄피가 튀는 그래픽 효과 활성화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable bullet casings (Shell ejection animation from firing guns)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BloodAnimations_BulletCasingToggle</t>
+  </si>
+  <si>
+    <t>Keyed+BloodAnimations_BulletCasingToggle</t>
+  </si>
+  <si>
+    <t>청소가 필요한 오물로 전환되는 비율 (기본값: 15%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filth left by particles (Percentage of particles that leave blood/debris filth that require colonists to clean up)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time until particles fade</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출혈 속도에 기반한 피 흘리는 그래픽 효과 (기본값: 100%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amount of bleeding particles (Animated bleeding based on pawn bleed rate)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격/타격 시에 파편이나 피가 튀는 그래픽 효과 (기본값: 100%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amount of blood/debris particles (Flying particles from direct damage)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blood Animations</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>차지 탄피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>energy bullet casings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filth_BulletCasingsCharge.label</t>
+  </si>
+  <si>
+    <t>ThingDef</t>
+  </si>
+  <si>
+    <t>ThingDef+Filth_BulletCasingsCharge.label</t>
+  </si>
+  <si>
+    <t>두꺼운 탄피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shotgun bullet casings</t>
+  </si>
+  <si>
+    <t>Filth_BulletCasingsShotgun.label</t>
+  </si>
+  <si>
+    <t>ThingDef+Filth_BulletCasingsShotgun.label</t>
+  </si>
+  <si>
+    <t>탄피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet casings</t>
+  </si>
+  <si>
+    <t>Filth_BulletCasingsRifle.label</t>
+  </si>
+  <si>
+    <t>ThingDef+Filth_BulletCasingsRifle.label</t>
+  </si>
+  <si>
+    <t>번진 피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>blood smear</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fuu_Filth_BloodSmear_Fleshbeast.label</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThingDef+Fuu_Filth_BloodSmear_Fleshbeast.label</t>
+  </si>
+  <si>
+    <t>new</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>Fuu_Filth_Blood_Fleshbeast.label</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThingDef+Fuu_Filth_Blood_Fleshbeast.label</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파편과 핏자국 그래픽 효과가 사라지는 데 걸리는 시간 (기본값: 10초)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -154,12 +314,30 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -174,9 +352,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -478,10 +659,314 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050D90F3-D929-4C43-9096-2C7889FF519A}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="49.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="101.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="53.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
